--- a/jobs_output_sequential.xlsx
+++ b/jobs_output_sequential.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="582">
   <si>
     <t>Site</t>
   </si>
@@ -28,12 +28,414 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Apple Careers Page</t>
+  </si>
+  <si>
     <t>USAJobs</t>
   </si>
   <si>
     <t>Google Careers Page</t>
   </si>
   <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>TextKit Software Engineer</t>
+  </si>
+  <si>
+    <t>RF Software Engineer</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>Location Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Integrity Engineer</t>
+  </si>
+  <si>
+    <t>Software QA Engineer</t>
+  </si>
+  <si>
+    <t>Software Build Engineer</t>
+  </si>
+  <si>
+    <t>Software Development Engineer</t>
+  </si>
+  <si>
+    <t>Software Incubation - iOS Software Engineer</t>
+  </si>
+  <si>
+    <t>L1/PHY Software Engineer</t>
+  </si>
+  <si>
+    <t>HomeKit Software Engineer</t>
+  </si>
+  <si>
+    <t>System Software Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer</t>
+  </si>
+  <si>
+    <t>WiFi Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineering Internships</t>
+  </si>
+  <si>
+    <t>Cellular Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>Senior Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>SoC Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>WiFi Performance Software Engineer</t>
+  </si>
+  <si>
+    <t>Power Management Software Engineer</t>
+  </si>
+  <si>
+    <t>iOS Software Engineer, Safari</t>
+  </si>
+  <si>
+    <t>HID -  Software Engineer</t>
+  </si>
+  <si>
+    <t>Senior Software Test Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer, Apple Watch</t>
+  </si>
+  <si>
+    <t>Machine Learning Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer, System Experience</t>
+  </si>
+  <si>
+    <t>Embedded Sensor Software Engineer</t>
+  </si>
+  <si>
+    <t>Production Builds Software Engineer</t>
+  </si>
+  <si>
+    <t>Modeling Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Compatibility Engineer</t>
+  </si>
+  <si>
+    <t>Software Integration Engineer</t>
+  </si>
+  <si>
+    <t>Motion Software Engineer</t>
+  </si>
+  <si>
+    <t>WiFi Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineering Program Manager</t>
+  </si>
+  <si>
+    <t>OS Charging Software Engineer</t>
+  </si>
+  <si>
+    <t>Pro Accessibility Software Engineer</t>
+  </si>
+  <si>
+    <t>iOS Software Engineer, Shortcuts</t>
+  </si>
+  <si>
+    <t>eSIM Software Engineering Manager</t>
+  </si>
+  <si>
+    <t>Senior Software Integration Engineer</t>
+  </si>
+  <si>
+    <t>Core Audio Software Engineer</t>
+  </si>
+  <si>
+    <t>Security Infrastructure Software Engineer</t>
+  </si>
+  <si>
+    <t>Wireless Software Performance Engineer</t>
+  </si>
+  <si>
+    <t>WiFi P2P Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer, Audio Infrastructure</t>
+  </si>
+  <si>
+    <t>watchOS Software Quality Engineer</t>
+  </si>
+  <si>
+    <t>Wireless Software Development Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer (ASE)</t>
+  </si>
+  <si>
+    <t>CoreMedia Software Development Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer, Device Compute</t>
+  </si>
+  <si>
+    <t>Bluetooth Software Systems Performance Engineer</t>
+  </si>
+  <si>
+    <t>Cellular Protocol Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>Framework Software Engineer, Enterprise Systems</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Apple Watch</t>
+  </si>
+  <si>
+    <t>Senior CloudKit Client Software Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer - Sports</t>
+  </si>
+  <si>
+    <t>Core Audio DSP Software Engineer</t>
+  </si>
+  <si>
+    <t>Embedded Software Engineer, CoreBSP</t>
+  </si>
+  <si>
+    <t>Modem Platform Software Engineer</t>
+  </si>
+  <si>
+    <t>WiFi Software Development Engineer</t>
+  </si>
+  <si>
+    <t>Cellular Software Development Engineer</t>
+  </si>
+  <si>
+    <t>Cocoa UI Software Engineer</t>
+  </si>
+  <si>
+    <t>Communication Applications Software Engineer</t>
+  </si>
+  <si>
+    <t>Wireless Coexistence Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Development Engineering Manager</t>
+  </si>
+  <si>
+    <t>Media Experience Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer - HomeKit</t>
+  </si>
+  <si>
+    <t>Sr Software Engineer, ML Systems Engineering</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager - Privacy Engineering</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer Apple Services Engineering</t>
+  </si>
+  <si>
+    <t>iOS Software Engineer - Human Engineering</t>
+  </si>
+  <si>
+    <t>Server-Side Software Engineer – Apple Services Engineering</t>
+  </si>
+  <si>
+    <t>Software Engineer - Apple Services Engineering</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Apple Services Engineering</t>
+  </si>
+  <si>
+    <t>WiFi Software Systems Performance Engineer</t>
+  </si>
+  <si>
+    <t>Systems Software Engineer, Platform Architecture</t>
+  </si>
+  <si>
+    <t>Software Integrity (Quality) Engineer, Photos</t>
+  </si>
+  <si>
+    <t>Board Firmware- Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>Claris - Backend Software Engineer</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Ad Platforms</t>
+  </si>
+  <si>
+    <t>Software Engineer - Embedded Systems</t>
+  </si>
+  <si>
+    <t>Software Development Engineer - SRE</t>
+  </si>
+  <si>
+    <t>Senior Software Big Data Engineer</t>
+  </si>
+  <si>
+    <t>Senior Machine Learning Software Engineer</t>
+  </si>
+  <si>
+    <t>Sr Software Engineer- Driver Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager, Streaming Media</t>
+  </si>
+  <si>
+    <t>iOS Software Engineer - Health</t>
+  </si>
+  <si>
+    <t>Lead Media Experience Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer - OS Services</t>
+  </si>
+  <si>
+    <t>Security Software Engineer, User Secrets</t>
+  </si>
+  <si>
+    <t>Software Engineering Program Manager - watchOS</t>
+  </si>
+  <si>
+    <t>Software QA Engineer - Computer Vision</t>
+  </si>
+  <si>
+    <t>Software Engineer, Employee Experience &amp; Productivity</t>
+  </si>
+  <si>
+    <t>Python Software Engineer - ISP Algorithms</t>
+  </si>
+  <si>
+    <t>Apple Watch Software QA Engineer, Fitness</t>
+  </si>
+  <si>
+    <t>Cellular Platform Software Engineer, Embedded Analytics</t>
+  </si>
+  <si>
+    <t>Security Software Engineer - Secure Transports</t>
+  </si>
+  <si>
+    <t>PLM Software Engineer, Enterprise Technology Services</t>
+  </si>
+  <si>
+    <t>5G Software Integration and Testing Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer - Big Data Technologies</t>
+  </si>
+  <si>
+    <t>Software Engineer - Strategic Data Solutions</t>
+  </si>
+  <si>
+    <t>Software Engineer/Data</t>
+  </si>
+  <si>
+    <t>Senior Front End Software Engineer, Apple Services Engineering</t>
+  </si>
+  <si>
+    <t>Principal Software Engineer, Apple Services Engineering</t>
+  </si>
+  <si>
+    <t>Senior Software QA Engineer  Apple Services Engineering.</t>
+  </si>
+  <si>
+    <t>Core WiFi Embedded Software Engineer</t>
+  </si>
+  <si>
+    <t>Core OS Accessories Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Development Engineer, Wireless Technologies</t>
+  </si>
+  <si>
+    <t>iOS Software Engineer, Keyboard UI</t>
+  </si>
+  <si>
+    <t>SOC  Power Management Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer, AIML Enterprise Systems</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, iCloud Efficiency</t>
+  </si>
+  <si>
+    <t>Engineering Program Manager, SWE Privacy</t>
+  </si>
+  <si>
+    <t>Software Engineer - Web Applications</t>
+  </si>
+  <si>
+    <t>Software Engineer, System Services &amp; Daemons</t>
+  </si>
+  <si>
+    <t>Software Engineer - Mass Storage Drivers</t>
+  </si>
+  <si>
+    <t>Software Engineer, OS and System Services</t>
+  </si>
+  <si>
+    <t>Software Engineer- SoC Level Validation Engineer</t>
+  </si>
+  <si>
+    <t>Senior Software QA Engineer-Apple Services Engineering.</t>
+  </si>
+  <si>
+    <t>Safari iOS App Services Software Engineer</t>
+  </si>
+  <si>
+    <t>AIML - Software Engineer, Information Intelligence</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager, Cloud File Providers</t>
+  </si>
+  <si>
+    <t>Embedded Software Engineer - Thermal Management</t>
+  </si>
+  <si>
+    <t>Engineering Project Manager - Software Delivery</t>
+  </si>
+  <si>
+    <t>Software Engineer - Backend Systems (Golang)</t>
+  </si>
+  <si>
+    <t>Software Quality Engineer - Applied Networking</t>
+  </si>
+  <si>
+    <t>Media Software Engineer - Apple Vision Pro</t>
+  </si>
+  <si>
+    <t>Networking Frameworks &amp; API Software Engineering Manager</t>
+  </si>
+  <si>
+    <t>Sr. iOS Software Engineer - ASE Products</t>
+  </si>
+  <si>
+    <t>ODAL Software Engineer, Siri and Information Intelligence</t>
+  </si>
+  <si>
+    <t>ML Software Engineering Manager - Apple Music</t>
+  </si>
+  <si>
+    <t>Software Engineer -  Analytics and Applied ML</t>
+  </si>
+  <si>
     <t>INTERDISCIPLINARY ENGINEER</t>
   </si>
   <si>
@@ -154,6 +556,537 @@
     <t>Staff Software Engineer, Infrastructure, Google Cloud Compute</t>
   </si>
   <si>
+    <t>Software Engineer III, Infrastructure, Google Cloud Unified Fulfillment Optimization</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Google Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Google Cloud Data Management</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Cloud Application Modernization</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Google Cloud Application Modernization</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Project Starline</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Privacy Sandbox</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Google Cloud AI</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Embedded Systems, Pixel</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Commerce</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Embedded Systems/Firmware, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Engineering Productivity, Google Workspace</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Google Cloud Generative AI</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Security/Privacy, Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Ads</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Front End, Google Cloud Data Management</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Storage Platforms</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Google Cloud Data Management</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, ML Supercomputer Reliability</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Video and Imaging, Android</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Workspace</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Mobile (Android), Google Workspace</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning, Core</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Google Cloud Data Management</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Play</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Project Starline</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Engineering Productivity, Chrome</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Machine Learning, Google Cloud AI</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Machine Learning, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Cloud Networking</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Engineering Productivity, Google Workspace</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Google Assistant</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Google Ads</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Machine Learning, Google Workspace</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Search</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Pixel</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Engineering Productivity, Google Play</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning, Google Cloud</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Performance, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Generative AI, Google Cloud AI</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Mobile (Android), Gemini</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Security/Privacy, Google Cloud AI</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Cloud Networking</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Mobile (iOS), Google Workspace</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Mobile (Android) Pixel</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Full Stack, Search</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Mobile (iOS), Search</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Assistant</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Ads</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Engineering Productivity, Core</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Cloud Security and Privacy</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Google Ads</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Workspace</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Full Stack, Google Ads</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Full Stack, Google Cloud AI</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Security/Privacy, Google Cloud AI</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Hardware/Software Co-Design</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Front End, Technology &amp; Society</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Google Ads</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Engineering Productivity, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Full Stack, Google Workspace</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Infrastructure, Google Cloud Application Modernization</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Core</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Infrastructure, Google Cloud Data Management</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, JAX External</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Engineering Productivity, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Machine Learning, Google Workspace</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Mobile (iOS), Geo</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Cloud Security and Privacy</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Core Machine Learning, Google Cloud</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Assistant</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Pixel</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Google Cloud Application Modernization</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Performance, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Privacy Sandbox</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Workspace</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Engineering Productivity, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Generative AI, Chrome Intelligence</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Embedded Systems, Pixel</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, App Hub</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Execution System Platform</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning, Google Assistant</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Mobile (Android), Google TV</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Privacy Sandbox</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning Infrastructure Acceleration</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Geo</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Machine Learning, Core</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning, Technology and Society</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning, Google Ads</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Google Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Cloud Networking</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Full Stack, Technology and Society</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Linux Kernel, Silicon</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Performance, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Google Cloud Generative AI</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Infrastructure, Google Cloud Networking</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Google Cloud, Looker</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning, Google Workspace</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Android</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Google Ads</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Full Stack, Google Cloud Application Modernization</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Networking</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Embedded Systems/Firmware, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Infrastructure, Google Cloud NetInfra</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Security/Privacy, Google Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Google Cloud NetInfra</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Pixel Creative Team</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Embedded Systems/Firmware, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Machine Learning, Search</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Resource Lifecycle Management, ML Accelerators</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Embedded Systems/Firmware, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, High Performance Computing, Google Cloud</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Infrastructure, Google Cloud</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Google Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Borglet</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Embedded Systems/Firmware, Pixel</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Networking</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Engineering Productivity, Android</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Core</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Pixel GPU System Software</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Embedded Systems/Firmware, Google Cloud Global Networking</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Full Stack, Google Cloud Application Modernization</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Machine Learning, Search</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Infrastructure, Google Cloud NetInfra</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Embedded Systems/Firmware, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Performance, Google Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Engineering Productivity, Chrome</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure, Platforms Infrastructure Engineering</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Infrastructure, Google Cloud Security and Privacy</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Google Compute Engine Accelerators</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Core Machine Learning, Google Cloud</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Workload Identity Management</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Full Stack, Technology &amp; Society</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Borglet Accelerators, GPU</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Chronicle</t>
+  </si>
+  <si>
+    <t>Senior Staff Software Engineer, Kernel</t>
+  </si>
+  <si>
+    <t>Embedded Software Engineer, Connectivity, Devices and Services</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer and Technical Lead, Cloud Interconnect</t>
+  </si>
+  <si>
+    <t>Software Engineer II, Site Reliability Engineering, Google Cloud</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Site Reliability Engineering, Google Cloud</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Site Reliability Engineering, Google Cloud</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Site Reliability Engineering, Google Cloud</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager, Google Kubernetes AI Infrastructure</t>
+  </si>
+  <si>
+    <t>Senior Software Engineering Manager, Big Query</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Google Cloud Data Management</t>
+  </si>
+  <si>
+    <t>Technical Lead, Google Kubernetes Engine, Generative AI</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Google Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Infrastructure Security</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Google Workspace</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Google Cloud Security and Privacy</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Infrastructure, Google Cloud Networking</t>
+  </si>
+  <si>
+    <t>Senior Software Engineering Manager, Google Cloud Data Management</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Machine Learning, Google Cloud</t>
+  </si>
+  <si>
+    <t>2D Graphics Engineer</t>
+  </si>
+  <si>
+    <t>Senior Software Engineering Manager, Google Cloud Compute</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager II, Engineering Productivity, Google Cloud Platforms</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
     <t>Naval Air Systems Command</t>
   </si>
   <si>
@@ -193,6 +1126,537 @@
     <t>Google</t>
   </si>
   <si>
+    <t>https://jobs.apple.com/en-us/details/200518445/software-engineer?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200477870/textkit-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200484197/rf-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200536851/senior-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540330/embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200498267/location-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200539787/software-integrity-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200544562/senior-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200449703/rf-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535827/senior-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200517867/embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200533260/software-qa-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200536185/software-build-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200517211/software-development-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540620/senior-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200539912/software-development-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200530553/rf-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200533567/senior-software-engineer?team=SLDEV</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200527627/software-incubation-ios-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200497357/l1-phy-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200519524/homekit-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535735/senior-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200515386/location-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535612/system-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200526756/location-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200542885/sr-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200538797/wifi-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540353/software-development-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200480063/software-engineering-internships?team=STDNT</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200506495/homekit-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200464806/cellular-embedded-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537649/senior-embedded-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200459823/soc-embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200515408/wifi-performance-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200497151/power-management-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200536971/ios-software-engineer-safari?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200539784/hid-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200530568/senior-software-test-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200538911/software-engineer-apple-watch?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200522826/machine-learning-software-engineer?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200529692/software-engineer-system-experience?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540809/embedded-sensor-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200543298/production-builds-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200529625/modeling-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200515378/location-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200519466/embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200541878/location-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200538425/software-compatibility-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200498298/location-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537218/software-integration-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200520766/motion-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200527824/senior-embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200504957/wifi-embedded-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200525841/software-engineering-program-manager?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200505622/os-charging-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200544171/pro-accessibility-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200519486/ios-software-engineer-shortcuts?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200491871/esim-software-engineering-manager?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200541607/senior-software-integration-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200542479/core-audio-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537798/security-infrastructure-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200504544/wireless-software-performance-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200519274/wifi-embedded-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200468082/os-charging-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200485417/wifi-p2p-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200456935/soc-embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200533608/software-engineer-audio-infrastructure?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200538565/os-charging-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200486259/watchos-software-quality-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540595/wireless-software-development-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535180/sr-software-engineer-ase?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200492790/coremedia-software-development-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540901/software-engineer-device-compute?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540712/machine-learning-software-engineer?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200489818/bluetooth-software-systems-performance-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200515413/cellular-protocol-embedded-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200523466/framework-software-engineer-enterprise-systems?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200520554/senior-software-engineer-apple-watch?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200545309/senior-cloudkit-client-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200532567/sr-software-engineer-sports?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200527241/core-audio-dsp-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200489051/embedded-software-engineer-corebsp?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200505931/modem-platform-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200394970/wifi-software-development-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200464864/cellular-software-development-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200527636/cocoa-ui-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200533243/communication-applications-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200461273/os-charging-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540438/wireless-coexistence-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200521831/software-development-engineering-manager?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200543890/wifi-p2p-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200509082/media-experience-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200515595/software-engineer-homekit?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200527946/sr-software-engineer-ml-systems-engineering?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200525897/software-engineering-manager-privacy-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200461233/senior-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200539874/ios-software-engineer-human-engineering?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200517177/server-side-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200536144/software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200544712/senior-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200542840/senior-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200542689/senior-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200504624/wifi-software-systems-performance-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200516028/systems-software-engineer-platform-architecture?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200536904/systems-software-engineer-platform-architecture?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200464028/wifi-software-systems-performance-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200515765/systems-software-engineer-platform-architecture?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200504071/software-integrity-quality-engineer-photos?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537038/board-firmware-embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200407347/claris-backend-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200521986/senior-software-engineer-ad-platforms?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200525628/software-engineer-embedded-systems?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200528608/software-development-engineer-sre?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537400/senior-software-big-data-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200493299/senior-machine-learning-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200516071/systems-software-engineer-platform-architecture?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200509013/sr-software-engineer-driver-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200510847/senior-cloudkit-client-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200516064/systems-software-engineer-platform-architecture?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200512724/software-engineering-manager-streaming-media?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200510840/senior-cloudkit-client-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200519513/ios-software-engineer-health?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540003/systems-software-engineer-platform-architecture?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200532617/lead-media-experience-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200542872/software-engineer-os-services?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200509871/security-software-engineer-user-secrets?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540433/software-engineering-program-manager-watchos?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540045/software-qa-engineer-computer-vision?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200526649/software-engineer-employee-experience-productivity?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200533621/python-software-engineer-isp-algorithms?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200479150/apple-watch-software-qa-engineer-fitness?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200463850/cellular-platform-software-engineer-embedded-analytics?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200505433/security-software-engineer-secure-transports?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200518847/plm-software-engineer-enterprise-technology-services?team=CORSV</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200536325/5g-software-integration-and-testing-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200509365/software-engineer-big-data-technologies?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200505580/software-engineer-strategic-data-solutions?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200536571/software-engineer-data?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540165/senior-front-end-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200511216/principal-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535994/senior-software-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535821/senior-software-qa-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200528676/core-wifi-embedded-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535829/core-os-accessories-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537035/board-firmware-embedded-software-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540001/systems-software-engineer-platform-architecture?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200503096/senior-software-engineer-apple-watch?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200507337/software-development-engineer-wireless-technologies?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200524672/ios-software-engineer-keyboard-ui?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200498375/soc-power-management-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200518836/software-engineer-aiml-enterprise-systems?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540650/senior-software-engineer-icloud-efficiency?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540436/engineering-program-manager-swe-privacy?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200500621/senior-software-engineer-ad-platforms?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200525940/software-engineer-web-applications?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200459691/software-engineer-system-services-daemons?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200508248/software-engineer-mass-storage-drivers?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200530558/software-engineer-os-and-system-services?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537051/software-engineer-soc-level-validation-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537050/software-engineer-soc-level-validation-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200537046/software-engineer-soc-level-validation-engineer?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200533916/senior-software-qa-engineer-apple-services-engineering?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200504030/safari-ios-app-services-software-engineer?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200491636/aiml-software-engineer-information-intelligence?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200530547/software-engineer-os-and-system-services?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200503216/software-engineering-manager-cloud-file-providers?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200530197/embedded-software-engineer-thermal-management?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540342/engineering-project-manager-software-delivery?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535951/software-engineer-backend-systems-golang?team=HRDWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200533537/software-quality-engineer-applied-networking?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200530564/software-engineer-os-and-system-services?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200522589/media-software-engineer-apple-vision-pro?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200530185/networking-frameworks-api-software-engineering-manager?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200535124/sr-ios-software-engineer-ase-products?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200512053/odal-software-engineer-siri-and-information-intelligence?team=SFTWR</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200505890/ml-software-engineering-manager-apple-music?team=MLAI</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/200540516/software-engineer-analytics-and-applied-ml?team=SFTWR</t>
+  </si>
+  <si>
     <t>https://www.usajobs.gov:443/GetJob/ViewDetails/779765600</t>
   </si>
   <si>
@@ -268,7 +1732,34 @@
     <t>https://www.usajobs.gov:443/GetJob/ViewDetails/765473200</t>
   </si>
   <si>
-    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States</t>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=3</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=5</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=6</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=7</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=9</t>
+  </si>
+  <si>
+    <t>https://www.google.com/about/careers/applications/jobs/results/?q="Software%20Engineer"&amp;location=United+States&amp;page=10</t>
   </si>
 </sst>
 </file>
@@ -639,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +2139,7 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="97.7109375" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="110.7109375" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -673,13 +2164,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -690,13 +2181,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -707,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -724,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -741,13 +2232,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -758,13 +2249,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -775,13 +2266,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -792,13 +2283,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -809,13 +2300,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -826,13 +2317,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>356</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -843,13 +2334,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -860,13 +2351,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -877,13 +2368,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -894,13 +2385,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -911,13 +2402,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -931,10 +2422,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -945,13 +2436,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -962,13 +2453,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -979,13 +2470,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -996,13 +2487,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1013,13 +2504,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1030,13 +2521,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>80</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1047,13 +2538,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1064,13 +2555,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1081,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1095,16 +2586,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1112,16 +2603,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1129,16 +2620,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1146,16 +2637,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1163,16 +2654,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>84</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1180,16 +2671,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1197,16 +2688,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1214,16 +2705,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1231,16 +2722,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1248,16 +2739,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1265,16 +2756,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1282,16 +2773,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1299,16 +2790,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1316,16 +2807,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1333,16 +2824,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1350,16 +2841,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1367,16 +2858,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1384,16 +2875,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1401,16 +2892,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>84</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1418,16 +2909,6476 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>356</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>356</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>356</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>356</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>356</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>356</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>356</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>356</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>356</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>356</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>356</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" t="s">
+        <v>356</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>356</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
+        <v>356</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>356</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>356</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>356</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>356</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s">
+        <v>356</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" t="s">
+        <v>356</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>356</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" t="s">
+        <v>356</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>356</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" t="s">
+        <v>356</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" t="s">
+        <v>356</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" t="s">
+        <v>356</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" t="s">
+        <v>356</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>356</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" t="s">
+        <v>356</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>356</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" t="s">
+        <v>356</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" t="s">
+        <v>356</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" t="s">
+        <v>356</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" t="s">
+        <v>356</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" t="s">
+        <v>356</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" t="s">
+        <v>356</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" t="s">
+        <v>356</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" t="s">
+        <v>356</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" t="s">
+        <v>356</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" t="s">
+        <v>356</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" t="s">
+        <v>356</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>356</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" t="s">
+        <v>356</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" t="s">
+        <v>356</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" t="s">
+        <v>356</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" t="s">
+        <v>356</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" t="s">
+        <v>356</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" t="s">
+        <v>356</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" t="s">
+        <v>356</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" t="s">
+        <v>356</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" t="s">
+        <v>356</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117" t="s">
+        <v>356</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" t="s">
+        <v>356</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119" t="s">
+        <v>356</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" t="s">
+        <v>356</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" t="s">
+        <v>356</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" t="s">
+        <v>356</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" t="s">
+        <v>356</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124" t="s">
+        <v>356</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" t="s">
+        <v>356</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" t="s">
+        <v>356</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127" t="s">
+        <v>356</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" t="s">
+        <v>356</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" t="s">
+        <v>356</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130" t="s">
+        <v>356</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" t="s">
+        <v>356</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" t="s">
+        <v>356</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" t="s">
+        <v>356</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>96</v>
+      </c>
+      <c r="D134" t="s">
+        <v>356</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" t="s">
+        <v>356</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" t="s">
+        <v>356</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>99</v>
+      </c>
+      <c r="D137" t="s">
+        <v>356</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>100</v>
+      </c>
+      <c r="D138" t="s">
+        <v>356</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>101</v>
+      </c>
+      <c r="D139" t="s">
+        <v>356</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>102</v>
+      </c>
+      <c r="D140" t="s">
+        <v>356</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" t="s">
+        <v>356</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" t="s">
+        <v>356</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" t="s">
+        <v>356</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" t="s">
+        <v>356</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>106</v>
+      </c>
+      <c r="D145" t="s">
+        <v>356</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>107</v>
+      </c>
+      <c r="D146" t="s">
+        <v>356</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" t="s">
+        <v>356</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>109</v>
+      </c>
+      <c r="D148" t="s">
+        <v>356</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>110</v>
+      </c>
+      <c r="D149" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>111</v>
+      </c>
+      <c r="D150" t="s">
+        <v>356</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" t="s">
+        <v>356</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" t="s">
+        <v>356</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>113</v>
+      </c>
+      <c r="D153" t="s">
+        <v>356</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>114</v>
+      </c>
+      <c r="D154" t="s">
+        <v>356</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>85</v>
+      </c>
+      <c r="D155" t="s">
+        <v>356</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>83</v>
+      </c>
+      <c r="D156" t="s">
+        <v>356</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" t="s">
+        <v>356</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>115</v>
+      </c>
+      <c r="D158" t="s">
+        <v>356</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>116</v>
+      </c>
+      <c r="D159" t="s">
+        <v>356</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160" t="s">
+        <v>356</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>119</v>
+      </c>
+      <c r="D162" t="s">
+        <v>356</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163" t="s">
+        <v>356</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>87</v>
+      </c>
+      <c r="D164" t="s">
+        <v>356</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>121</v>
+      </c>
+      <c r="D165" t="s">
+        <v>356</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>122</v>
+      </c>
+      <c r="D166" t="s">
+        <v>356</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>123</v>
+      </c>
+      <c r="D167" t="s">
+        <v>356</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>124</v>
+      </c>
+      <c r="D168" t="s">
+        <v>356</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>125</v>
+      </c>
+      <c r="D169" t="s">
+        <v>356</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>125</v>
+      </c>
+      <c r="D170" t="s">
+        <v>356</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>125</v>
+      </c>
+      <c r="D171" t="s">
+        <v>356</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>126</v>
+      </c>
+      <c r="D172" t="s">
+        <v>356</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>127</v>
+      </c>
+      <c r="D173" t="s">
+        <v>356</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>128</v>
+      </c>
+      <c r="D174" t="s">
+        <v>356</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>124</v>
+      </c>
+      <c r="D175" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" t="s">
+        <v>356</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>130</v>
+      </c>
+      <c r="D177" t="s">
+        <v>356</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>131</v>
+      </c>
+      <c r="D178" t="s">
+        <v>356</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>132</v>
+      </c>
+      <c r="D179" t="s">
+        <v>356</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180" t="s">
+        <v>356</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>124</v>
+      </c>
+      <c r="D181" t="s">
+        <v>356</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>123</v>
+      </c>
+      <c r="D182" t="s">
+        <v>356</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>124</v>
+      </c>
+      <c r="D183" t="s">
+        <v>356</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>125</v>
+      </c>
+      <c r="D184" t="s">
+        <v>356</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>125</v>
+      </c>
+      <c r="D185" t="s">
+        <v>356</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>125</v>
+      </c>
+      <c r="D186" t="s">
+        <v>356</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>126</v>
+      </c>
+      <c r="D187" t="s">
+        <v>356</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>127</v>
+      </c>
+      <c r="D188" t="s">
+        <v>356</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>124</v>
+      </c>
+      <c r="D189" t="s">
+        <v>356</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>128</v>
+      </c>
+      <c r="D190" t="s">
+        <v>356</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>129</v>
+      </c>
+      <c r="D191" t="s">
+        <v>356</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>130</v>
+      </c>
+      <c r="D192" t="s">
+        <v>356</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" t="s">
+        <v>356</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>132</v>
+      </c>
+      <c r="D194" t="s">
+        <v>356</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>133</v>
+      </c>
+      <c r="D195" t="s">
+        <v>356</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>134</v>
+      </c>
+      <c r="D196" t="s">
+        <v>356</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>135</v>
+      </c>
+      <c r="D197" t="s">
+        <v>356</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>136</v>
+      </c>
+      <c r="D198" t="s">
+        <v>356</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>137</v>
+      </c>
+      <c r="D199" t="s">
+        <v>356</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>138</v>
+      </c>
+      <c r="D200" t="s">
+        <v>356</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>139</v>
+      </c>
+      <c r="D201" t="s">
+        <v>356</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
         <v>5</v>
       </c>
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>84</v>
+      <c r="C202" t="s">
+        <v>140</v>
+      </c>
+      <c r="D202" t="s">
+        <v>357</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>141</v>
+      </c>
+      <c r="D203" t="s">
+        <v>357</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>142</v>
+      </c>
+      <c r="D204" t="s">
+        <v>358</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>143</v>
+      </c>
+      <c r="D205" t="s">
+        <v>359</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>142</v>
+      </c>
+      <c r="D206" t="s">
+        <v>358</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>144</v>
+      </c>
+      <c r="D207" t="s">
+        <v>360</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>145</v>
+      </c>
+      <c r="D208" t="s">
+        <v>361</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>146</v>
+      </c>
+      <c r="D209" t="s">
+        <v>357</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>147</v>
+      </c>
+      <c r="D210" t="s">
+        <v>358</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>148</v>
+      </c>
+      <c r="D211" t="s">
+        <v>362</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>149</v>
+      </c>
+      <c r="D212" t="s">
+        <v>360</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>150</v>
+      </c>
+      <c r="D213" t="s">
+        <v>358</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>150</v>
+      </c>
+      <c r="D214" t="s">
+        <v>358</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>151</v>
+      </c>
+      <c r="D215" t="s">
+        <v>359</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>152</v>
+      </c>
+      <c r="D216" t="s">
+        <v>363</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>150</v>
+      </c>
+      <c r="D217" t="s">
+        <v>358</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>153</v>
+      </c>
+      <c r="D218" t="s">
+        <v>363</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>154</v>
+      </c>
+      <c r="D219" t="s">
+        <v>364</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>142</v>
+      </c>
+      <c r="D220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>155</v>
+      </c>
+      <c r="D221" t="s">
+        <v>366</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>156</v>
+      </c>
+      <c r="D222" t="s">
+        <v>357</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>156</v>
+      </c>
+      <c r="D223" t="s">
+        <v>357</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>157</v>
+      </c>
+      <c r="D224" t="s">
+        <v>367</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>158</v>
+      </c>
+      <c r="D225" t="s">
+        <v>368</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>159</v>
+      </c>
+      <c r="D226" t="s">
+        <v>360</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>160</v>
+      </c>
+      <c r="D227" t="s">
+        <v>369</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>161</v>
+      </c>
+      <c r="D228" t="s">
+        <v>369</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>162</v>
+      </c>
+      <c r="D229" t="s">
+        <v>369</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>163</v>
+      </c>
+      <c r="D230" t="s">
+        <v>369</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>164</v>
+      </c>
+      <c r="D231" t="s">
+        <v>369</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>165</v>
+      </c>
+      <c r="D232" t="s">
+        <v>369</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>166</v>
+      </c>
+      <c r="D233" t="s">
+        <v>369</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>167</v>
+      </c>
+      <c r="D234" t="s">
+        <v>369</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>168</v>
+      </c>
+      <c r="D235" t="s">
+        <v>369</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>169</v>
+      </c>
+      <c r="D236" t="s">
+        <v>369</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>170</v>
+      </c>
+      <c r="D237" t="s">
+        <v>369</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>171</v>
+      </c>
+      <c r="D238" t="s">
+        <v>369</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>172</v>
+      </c>
+      <c r="D239" t="s">
+        <v>369</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>173</v>
+      </c>
+      <c r="D240" t="s">
+        <v>369</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>174</v>
+      </c>
+      <c r="D241" t="s">
+        <v>369</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>175</v>
+      </c>
+      <c r="D242" t="s">
+        <v>369</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>176</v>
+      </c>
+      <c r="D243" t="s">
+        <v>369</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>177</v>
+      </c>
+      <c r="D244" t="s">
+        <v>369</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>178</v>
+      </c>
+      <c r="D245" t="s">
+        <v>369</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>179</v>
+      </c>
+      <c r="D246" t="s">
+        <v>369</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>180</v>
+      </c>
+      <c r="D247" t="s">
+        <v>369</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>181</v>
+      </c>
+      <c r="D248" t="s">
+        <v>369</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>182</v>
+      </c>
+      <c r="D249" t="s">
+        <v>369</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>183</v>
+      </c>
+      <c r="D250" t="s">
+        <v>369</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>184</v>
+      </c>
+      <c r="D251" t="s">
+        <v>369</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>185</v>
+      </c>
+      <c r="D252" t="s">
+        <v>369</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>186</v>
+      </c>
+      <c r="D253" t="s">
+        <v>369</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>187</v>
+      </c>
+      <c r="D254" t="s">
+        <v>369</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>188</v>
+      </c>
+      <c r="D255" t="s">
+        <v>369</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>189</v>
+      </c>
+      <c r="D256" t="s">
+        <v>369</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>190</v>
+      </c>
+      <c r="D257" t="s">
+        <v>369</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>191</v>
+      </c>
+      <c r="D258" t="s">
+        <v>369</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>192</v>
+      </c>
+      <c r="D259" t="s">
+        <v>369</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>193</v>
+      </c>
+      <c r="D260" t="s">
+        <v>369</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>194</v>
+      </c>
+      <c r="D261" t="s">
+        <v>369</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>195</v>
+      </c>
+      <c r="D262" t="s">
+        <v>369</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>196</v>
+      </c>
+      <c r="D263" t="s">
+        <v>369</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>197</v>
+      </c>
+      <c r="D264" t="s">
+        <v>369</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>198</v>
+      </c>
+      <c r="D265" t="s">
+        <v>369</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>199</v>
+      </c>
+      <c r="D266" t="s">
+        <v>369</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>200</v>
+      </c>
+      <c r="D267" t="s">
+        <v>369</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>201</v>
+      </c>
+      <c r="D268" t="s">
+        <v>369</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>202</v>
+      </c>
+      <c r="D269" t="s">
+        <v>369</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>203</v>
+      </c>
+      <c r="D270" t="s">
+        <v>369</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>204</v>
+      </c>
+      <c r="D271" t="s">
+        <v>369</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>205</v>
+      </c>
+      <c r="D272" t="s">
+        <v>369</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>206</v>
+      </c>
+      <c r="D273" t="s">
+        <v>369</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>207</v>
+      </c>
+      <c r="D274" t="s">
+        <v>369</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>208</v>
+      </c>
+      <c r="D275" t="s">
+        <v>369</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>209</v>
+      </c>
+      <c r="D276" t="s">
+        <v>369</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>210</v>
+      </c>
+      <c r="D277" t="s">
+        <v>369</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>211</v>
+      </c>
+      <c r="D278" t="s">
+        <v>369</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>212</v>
+      </c>
+      <c r="D279" t="s">
+        <v>369</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>213</v>
+      </c>
+      <c r="D280" t="s">
+        <v>369</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>214</v>
+      </c>
+      <c r="D281" t="s">
+        <v>369</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>215</v>
+      </c>
+      <c r="D282" t="s">
+        <v>369</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>216</v>
+      </c>
+      <c r="D283" t="s">
+        <v>369</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>217</v>
+      </c>
+      <c r="D284" t="s">
+        <v>369</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>218</v>
+      </c>
+      <c r="D285" t="s">
+        <v>369</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>219</v>
+      </c>
+      <c r="D286" t="s">
+        <v>369</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>220</v>
+      </c>
+      <c r="D287" t="s">
+        <v>369</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>221</v>
+      </c>
+      <c r="D288" t="s">
+        <v>369</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>222</v>
+      </c>
+      <c r="D289" t="s">
+        <v>369</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>223</v>
+      </c>
+      <c r="D290" t="s">
+        <v>369</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>224</v>
+      </c>
+      <c r="D291" t="s">
+        <v>369</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>225</v>
+      </c>
+      <c r="D292" t="s">
+        <v>369</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>226</v>
+      </c>
+      <c r="D293" t="s">
+        <v>369</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>227</v>
+      </c>
+      <c r="D294" t="s">
+        <v>369</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>228</v>
+      </c>
+      <c r="D295" t="s">
+        <v>369</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>229</v>
+      </c>
+      <c r="D296" t="s">
+        <v>369</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>230</v>
+      </c>
+      <c r="D297" t="s">
+        <v>369</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>231</v>
+      </c>
+      <c r="D298" t="s">
+        <v>369</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>232</v>
+      </c>
+      <c r="D299" t="s">
+        <v>369</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>233</v>
+      </c>
+      <c r="D300" t="s">
+        <v>369</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s">
+        <v>234</v>
+      </c>
+      <c r="D301" t="s">
+        <v>369</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>235</v>
+      </c>
+      <c r="D302" t="s">
+        <v>369</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>236</v>
+      </c>
+      <c r="D303" t="s">
+        <v>369</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>237</v>
+      </c>
+      <c r="D304" t="s">
+        <v>369</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>238</v>
+      </c>
+      <c r="D305" t="s">
+        <v>369</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>239</v>
+      </c>
+      <c r="D306" t="s">
+        <v>369</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>240</v>
+      </c>
+      <c r="D307" t="s">
+        <v>369</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>241</v>
+      </c>
+      <c r="D308" t="s">
+        <v>369</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>242</v>
+      </c>
+      <c r="D309" t="s">
+        <v>369</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s">
+        <v>243</v>
+      </c>
+      <c r="D310" t="s">
+        <v>369</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>244</v>
+      </c>
+      <c r="D311" t="s">
+        <v>369</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>245</v>
+      </c>
+      <c r="D312" t="s">
+        <v>369</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>246</v>
+      </c>
+      <c r="D313" t="s">
+        <v>369</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>247</v>
+      </c>
+      <c r="D314" t="s">
+        <v>369</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>248</v>
+      </c>
+      <c r="D315" t="s">
+        <v>369</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>249</v>
+      </c>
+      <c r="D316" t="s">
+        <v>369</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>250</v>
+      </c>
+      <c r="D317" t="s">
+        <v>369</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>251</v>
+      </c>
+      <c r="D318" t="s">
+        <v>369</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s">
+        <v>252</v>
+      </c>
+      <c r="D319" t="s">
+        <v>369</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320" t="s">
+        <v>253</v>
+      </c>
+      <c r="D320" t="s">
+        <v>369</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>254</v>
+      </c>
+      <c r="D321" t="s">
+        <v>369</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" t="s">
+        <v>255</v>
+      </c>
+      <c r="D322" t="s">
+        <v>369</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323" t="s">
+        <v>256</v>
+      </c>
+      <c r="D323" t="s">
+        <v>369</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" t="s">
+        <v>257</v>
+      </c>
+      <c r="D324" t="s">
+        <v>369</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325" t="s">
+        <v>258</v>
+      </c>
+      <c r="D325" t="s">
+        <v>369</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" t="s">
+        <v>259</v>
+      </c>
+      <c r="D326" t="s">
+        <v>369</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327" t="s">
+        <v>260</v>
+      </c>
+      <c r="D327" t="s">
+        <v>369</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" t="s">
+        <v>261</v>
+      </c>
+      <c r="D328" t="s">
+        <v>369</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>262</v>
+      </c>
+      <c r="D329" t="s">
+        <v>369</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" t="s">
+        <v>263</v>
+      </c>
+      <c r="D330" t="s">
+        <v>369</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331" t="s">
+        <v>264</v>
+      </c>
+      <c r="D331" t="s">
+        <v>369</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>265</v>
+      </c>
+      <c r="D332" t="s">
+        <v>369</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" t="s">
+        <v>205</v>
+      </c>
+      <c r="D333" t="s">
+        <v>369</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" t="s">
+        <v>266</v>
+      </c>
+      <c r="D334" t="s">
+        <v>369</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>267</v>
+      </c>
+      <c r="D335" t="s">
+        <v>369</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336" t="s">
+        <v>268</v>
+      </c>
+      <c r="D336" t="s">
+        <v>369</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" t="s">
+        <v>269</v>
+      </c>
+      <c r="D337" t="s">
+        <v>369</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" t="s">
+        <v>270</v>
+      </c>
+      <c r="D338" t="s">
+        <v>369</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339" t="s">
+        <v>271</v>
+      </c>
+      <c r="D339" t="s">
+        <v>369</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340" t="s">
+        <v>272</v>
+      </c>
+      <c r="D340" t="s">
+        <v>369</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341" t="s">
+        <v>273</v>
+      </c>
+      <c r="D341" t="s">
+        <v>369</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>6</v>
+      </c>
+      <c r="C342" t="s">
+        <v>274</v>
+      </c>
+      <c r="D342" t="s">
+        <v>369</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" t="s">
+        <v>275</v>
+      </c>
+      <c r="D343" t="s">
+        <v>369</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>276</v>
+      </c>
+      <c r="D344" t="s">
+        <v>369</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345" t="s">
+        <v>277</v>
+      </c>
+      <c r="D345" t="s">
+        <v>369</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
+      </c>
+      <c r="C346" t="s">
+        <v>278</v>
+      </c>
+      <c r="D346" t="s">
+        <v>369</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347" t="s">
+        <v>279</v>
+      </c>
+      <c r="D347" t="s">
+        <v>369</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348" t="s">
+        <v>280</v>
+      </c>
+      <c r="D348" t="s">
+        <v>369</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" t="s">
+        <v>281</v>
+      </c>
+      <c r="D349" t="s">
+        <v>369</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>6</v>
+      </c>
+      <c r="C350" t="s">
+        <v>282</v>
+      </c>
+      <c r="D350" t="s">
+        <v>369</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351" t="s">
+        <v>283</v>
+      </c>
+      <c r="D351" t="s">
+        <v>369</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s">
+        <v>284</v>
+      </c>
+      <c r="D352" t="s">
+        <v>369</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" t="s">
+        <v>285</v>
+      </c>
+      <c r="D353" t="s">
+        <v>369</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354" t="s">
+        <v>286</v>
+      </c>
+      <c r="D354" t="s">
+        <v>369</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" t="s">
+        <v>287</v>
+      </c>
+      <c r="D355" t="s">
+        <v>369</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>6</v>
+      </c>
+      <c r="C356" t="s">
+        <v>288</v>
+      </c>
+      <c r="D356" t="s">
+        <v>369</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357" t="s">
+        <v>289</v>
+      </c>
+      <c r="D357" t="s">
+        <v>369</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" t="s">
+        <v>290</v>
+      </c>
+      <c r="D358" t="s">
+        <v>369</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359" t="s">
+        <v>291</v>
+      </c>
+      <c r="D359" t="s">
+        <v>369</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>6</v>
+      </c>
+      <c r="C360" t="s">
+        <v>292</v>
+      </c>
+      <c r="D360" t="s">
+        <v>369</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" t="s">
+        <v>293</v>
+      </c>
+      <c r="D361" t="s">
+        <v>369</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s">
+        <v>294</v>
+      </c>
+      <c r="D362" t="s">
+        <v>369</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" t="s">
+        <v>295</v>
+      </c>
+      <c r="D363" t="s">
+        <v>369</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s">
+        <v>296</v>
+      </c>
+      <c r="D364" t="s">
+        <v>369</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" t="s">
+        <v>297</v>
+      </c>
+      <c r="D365" t="s">
+        <v>369</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" t="s">
+        <v>298</v>
+      </c>
+      <c r="D366" t="s">
+        <v>369</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" t="s">
+        <v>299</v>
+      </c>
+      <c r="D367" t="s">
+        <v>369</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" t="s">
+        <v>300</v>
+      </c>
+      <c r="D368" t="s">
+        <v>369</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s">
+        <v>301</v>
+      </c>
+      <c r="D369" t="s">
+        <v>369</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>6</v>
+      </c>
+      <c r="C370" t="s">
+        <v>302</v>
+      </c>
+      <c r="D370" t="s">
+        <v>369</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" t="s">
+        <v>303</v>
+      </c>
+      <c r="D371" t="s">
+        <v>369</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" t="s">
+        <v>304</v>
+      </c>
+      <c r="D372" t="s">
+        <v>369</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" t="s">
+        <v>305</v>
+      </c>
+      <c r="D373" t="s">
+        <v>369</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s">
+        <v>306</v>
+      </c>
+      <c r="D374" t="s">
+        <v>369</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375" t="s">
+        <v>307</v>
+      </c>
+      <c r="D375" t="s">
+        <v>369</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>308</v>
+      </c>
+      <c r="D376" t="s">
+        <v>369</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377" t="s">
+        <v>309</v>
+      </c>
+      <c r="D377" t="s">
+        <v>369</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" t="s">
+        <v>310</v>
+      </c>
+      <c r="D378" t="s">
+        <v>369</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s">
+        <v>311</v>
+      </c>
+      <c r="D379" t="s">
+        <v>369</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>179</v>
+      </c>
+      <c r="D380" t="s">
+        <v>369</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381" t="s">
+        <v>312</v>
+      </c>
+      <c r="D381" t="s">
+        <v>369</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" t="s">
+        <v>239</v>
+      </c>
+      <c r="D382" t="s">
+        <v>369</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" t="s">
+        <v>313</v>
+      </c>
+      <c r="D383" t="s">
+        <v>369</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" t="s">
+        <v>314</v>
+      </c>
+      <c r="D384" t="s">
+        <v>369</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" t="s">
+        <v>315</v>
+      </c>
+      <c r="D385" t="s">
+        <v>369</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" t="s">
+        <v>316</v>
+      </c>
+      <c r="D386" t="s">
+        <v>369</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" t="s">
+        <v>317</v>
+      </c>
+      <c r="D387" t="s">
+        <v>369</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" t="s">
+        <v>318</v>
+      </c>
+      <c r="D388" t="s">
+        <v>369</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s">
+        <v>319</v>
+      </c>
+      <c r="D389" t="s">
+        <v>369</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" t="s">
+        <v>320</v>
+      </c>
+      <c r="D390" t="s">
+        <v>369</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" t="s">
+        <v>321</v>
+      </c>
+      <c r="D391" t="s">
+        <v>369</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>322</v>
+      </c>
+      <c r="D392" t="s">
+        <v>369</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" t="s">
+        <v>323</v>
+      </c>
+      <c r="D393" t="s">
+        <v>369</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" t="s">
+        <v>324</v>
+      </c>
+      <c r="D394" t="s">
+        <v>369</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s">
+        <v>325</v>
+      </c>
+      <c r="D395" t="s">
+        <v>369</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" t="s">
+        <v>326</v>
+      </c>
+      <c r="D396" t="s">
+        <v>369</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s">
+        <v>327</v>
+      </c>
+      <c r="D397" t="s">
+        <v>369</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>328</v>
+      </c>
+      <c r="D398" t="s">
+        <v>369</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" t="s">
+        <v>329</v>
+      </c>
+      <c r="D399" t="s">
+        <v>369</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" t="s">
+        <v>330</v>
+      </c>
+      <c r="D400" t="s">
+        <v>369</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>331</v>
+      </c>
+      <c r="D401" t="s">
+        <v>369</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" t="s">
+        <v>332</v>
+      </c>
+      <c r="D402" t="s">
+        <v>369</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" t="s">
+        <v>333</v>
+      </c>
+      <c r="D403" t="s">
+        <v>369</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
+        <v>334</v>
+      </c>
+      <c r="D404" t="s">
+        <v>369</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" t="s">
+        <v>335</v>
+      </c>
+      <c r="D405" t="s">
+        <v>369</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" t="s">
+        <v>336</v>
+      </c>
+      <c r="D406" t="s">
+        <v>369</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>337</v>
+      </c>
+      <c r="D407" t="s">
+        <v>369</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" t="s">
+        <v>338</v>
+      </c>
+      <c r="D408" t="s">
+        <v>369</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" t="s">
+        <v>339</v>
+      </c>
+      <c r="D409" t="s">
+        <v>369</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" t="s">
+        <v>340</v>
+      </c>
+      <c r="D410" t="s">
+        <v>369</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" t="s">
+        <v>341</v>
+      </c>
+      <c r="D411" t="s">
+        <v>369</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" t="s">
+        <v>342</v>
+      </c>
+      <c r="D412" t="s">
+        <v>369</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" t="s">
+        <v>343</v>
+      </c>
+      <c r="D413" t="s">
+        <v>369</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" t="s">
+        <v>344</v>
+      </c>
+      <c r="D414" t="s">
+        <v>369</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" t="s">
+        <v>345</v>
+      </c>
+      <c r="D415" t="s">
+        <v>369</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>346</v>
+      </c>
+      <c r="D416" t="s">
+        <v>369</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>6</v>
+      </c>
+      <c r="C417" t="s">
+        <v>347</v>
+      </c>
+      <c r="D417" t="s">
+        <v>369</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" t="s">
+        <v>348</v>
+      </c>
+      <c r="D418" t="s">
+        <v>369</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" t="s">
+        <v>349</v>
+      </c>
+      <c r="D419" t="s">
+        <v>369</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420" t="s">
+        <v>350</v>
+      </c>
+      <c r="D420" t="s">
+        <v>369</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" t="s">
+        <v>351</v>
+      </c>
+      <c r="D421" t="s">
+        <v>369</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s">
+        <v>352</v>
+      </c>
+      <c r="D422" t="s">
+        <v>369</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" t="s">
+        <v>353</v>
+      </c>
+      <c r="D423" t="s">
+        <v>369</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s">
+        <v>354</v>
+      </c>
+      <c r="D424" t="s">
+        <v>369</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>353</v>
+      </c>
+      <c r="D425" t="s">
+        <v>369</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>355</v>
+      </c>
+      <c r="D426" t="s">
+        <v>369</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -1477,6 +9428,386 @@
     <hyperlink ref="E44" r:id="rId43"/>
     <hyperlink ref="E45" r:id="rId44"/>
     <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+    <hyperlink ref="E170" r:id="rId169"/>
+    <hyperlink ref="E171" r:id="rId170"/>
+    <hyperlink ref="E172" r:id="rId171"/>
+    <hyperlink ref="E173" r:id="rId172"/>
+    <hyperlink ref="E174" r:id="rId173"/>
+    <hyperlink ref="E175" r:id="rId174"/>
+    <hyperlink ref="E176" r:id="rId175"/>
+    <hyperlink ref="E177" r:id="rId176"/>
+    <hyperlink ref="E178" r:id="rId177"/>
+    <hyperlink ref="E179" r:id="rId178"/>
+    <hyperlink ref="E180" r:id="rId179"/>
+    <hyperlink ref="E181" r:id="rId180"/>
+    <hyperlink ref="E182" r:id="rId181"/>
+    <hyperlink ref="E183" r:id="rId182"/>
+    <hyperlink ref="E184" r:id="rId183"/>
+    <hyperlink ref="E185" r:id="rId184"/>
+    <hyperlink ref="E186" r:id="rId185"/>
+    <hyperlink ref="E187" r:id="rId186"/>
+    <hyperlink ref="E188" r:id="rId187"/>
+    <hyperlink ref="E189" r:id="rId188"/>
+    <hyperlink ref="E190" r:id="rId189"/>
+    <hyperlink ref="E191" r:id="rId190"/>
+    <hyperlink ref="E192" r:id="rId191"/>
+    <hyperlink ref="E193" r:id="rId192"/>
+    <hyperlink ref="E194" r:id="rId193"/>
+    <hyperlink ref="E195" r:id="rId194"/>
+    <hyperlink ref="E196" r:id="rId195"/>
+    <hyperlink ref="E197" r:id="rId196"/>
+    <hyperlink ref="E198" r:id="rId197"/>
+    <hyperlink ref="E199" r:id="rId198"/>
+    <hyperlink ref="E200" r:id="rId199"/>
+    <hyperlink ref="E201" r:id="rId200"/>
+    <hyperlink ref="E202" r:id="rId201"/>
+    <hyperlink ref="E203" r:id="rId202"/>
+    <hyperlink ref="E204" r:id="rId203"/>
+    <hyperlink ref="E205" r:id="rId204"/>
+    <hyperlink ref="E206" r:id="rId205"/>
+    <hyperlink ref="E207" r:id="rId206"/>
+    <hyperlink ref="E208" r:id="rId207"/>
+    <hyperlink ref="E209" r:id="rId208"/>
+    <hyperlink ref="E210" r:id="rId209"/>
+    <hyperlink ref="E211" r:id="rId210"/>
+    <hyperlink ref="E212" r:id="rId211"/>
+    <hyperlink ref="E213" r:id="rId212"/>
+    <hyperlink ref="E214" r:id="rId213"/>
+    <hyperlink ref="E215" r:id="rId214"/>
+    <hyperlink ref="E216" r:id="rId215"/>
+    <hyperlink ref="E217" r:id="rId216"/>
+    <hyperlink ref="E218" r:id="rId217"/>
+    <hyperlink ref="E219" r:id="rId218"/>
+    <hyperlink ref="E220" r:id="rId219"/>
+    <hyperlink ref="E221" r:id="rId220"/>
+    <hyperlink ref="E222" r:id="rId221"/>
+    <hyperlink ref="E223" r:id="rId222"/>
+    <hyperlink ref="E224" r:id="rId223"/>
+    <hyperlink ref="E225" r:id="rId224"/>
+    <hyperlink ref="E226" r:id="rId225"/>
+    <hyperlink ref="E227" r:id="rId226"/>
+    <hyperlink ref="E228" r:id="rId227"/>
+    <hyperlink ref="E229" r:id="rId228"/>
+    <hyperlink ref="E230" r:id="rId229"/>
+    <hyperlink ref="E231" r:id="rId230"/>
+    <hyperlink ref="E232" r:id="rId231"/>
+    <hyperlink ref="E233" r:id="rId232"/>
+    <hyperlink ref="E234" r:id="rId233"/>
+    <hyperlink ref="E235" r:id="rId234"/>
+    <hyperlink ref="E236" r:id="rId235"/>
+    <hyperlink ref="E237" r:id="rId236"/>
+    <hyperlink ref="E238" r:id="rId237"/>
+    <hyperlink ref="E239" r:id="rId238"/>
+    <hyperlink ref="E240" r:id="rId239"/>
+    <hyperlink ref="E241" r:id="rId240"/>
+    <hyperlink ref="E242" r:id="rId241"/>
+    <hyperlink ref="E243" r:id="rId242"/>
+    <hyperlink ref="E244" r:id="rId243"/>
+    <hyperlink ref="E245" r:id="rId244"/>
+    <hyperlink ref="E246" r:id="rId245"/>
+    <hyperlink ref="E247" r:id="rId246"/>
+    <hyperlink ref="E248" r:id="rId247"/>
+    <hyperlink ref="E249" r:id="rId248"/>
+    <hyperlink ref="E250" r:id="rId249"/>
+    <hyperlink ref="E251" r:id="rId250"/>
+    <hyperlink ref="E252" r:id="rId251"/>
+    <hyperlink ref="E253" r:id="rId252"/>
+    <hyperlink ref="E254" r:id="rId253"/>
+    <hyperlink ref="E255" r:id="rId254"/>
+    <hyperlink ref="E256" r:id="rId255"/>
+    <hyperlink ref="E257" r:id="rId256"/>
+    <hyperlink ref="E258" r:id="rId257"/>
+    <hyperlink ref="E259" r:id="rId258"/>
+    <hyperlink ref="E260" r:id="rId259"/>
+    <hyperlink ref="E261" r:id="rId260"/>
+    <hyperlink ref="E262" r:id="rId261"/>
+    <hyperlink ref="E263" r:id="rId262"/>
+    <hyperlink ref="E264" r:id="rId263"/>
+    <hyperlink ref="E265" r:id="rId264"/>
+    <hyperlink ref="E266" r:id="rId265"/>
+    <hyperlink ref="E267" r:id="rId266"/>
+    <hyperlink ref="E268" r:id="rId267"/>
+    <hyperlink ref="E269" r:id="rId268"/>
+    <hyperlink ref="E270" r:id="rId269"/>
+    <hyperlink ref="E271" r:id="rId270"/>
+    <hyperlink ref="E272" r:id="rId271"/>
+    <hyperlink ref="E273" r:id="rId272"/>
+    <hyperlink ref="E274" r:id="rId273"/>
+    <hyperlink ref="E275" r:id="rId274"/>
+    <hyperlink ref="E276" r:id="rId275"/>
+    <hyperlink ref="E277" r:id="rId276"/>
+    <hyperlink ref="E278" r:id="rId277"/>
+    <hyperlink ref="E279" r:id="rId278"/>
+    <hyperlink ref="E280" r:id="rId279"/>
+    <hyperlink ref="E281" r:id="rId280"/>
+    <hyperlink ref="E282" r:id="rId281"/>
+    <hyperlink ref="E283" r:id="rId282"/>
+    <hyperlink ref="E284" r:id="rId283"/>
+    <hyperlink ref="E285" r:id="rId284"/>
+    <hyperlink ref="E286" r:id="rId285"/>
+    <hyperlink ref="E287" r:id="rId286"/>
+    <hyperlink ref="E288" r:id="rId287"/>
+    <hyperlink ref="E289" r:id="rId288"/>
+    <hyperlink ref="E290" r:id="rId289"/>
+    <hyperlink ref="E291" r:id="rId290"/>
+    <hyperlink ref="E292" r:id="rId291"/>
+    <hyperlink ref="E293" r:id="rId292"/>
+    <hyperlink ref="E294" r:id="rId293"/>
+    <hyperlink ref="E295" r:id="rId294"/>
+    <hyperlink ref="E296" r:id="rId295"/>
+    <hyperlink ref="E297" r:id="rId296"/>
+    <hyperlink ref="E298" r:id="rId297"/>
+    <hyperlink ref="E299" r:id="rId298"/>
+    <hyperlink ref="E300" r:id="rId299"/>
+    <hyperlink ref="E301" r:id="rId300"/>
+    <hyperlink ref="E302" r:id="rId301"/>
+    <hyperlink ref="E303" r:id="rId302"/>
+    <hyperlink ref="E304" r:id="rId303"/>
+    <hyperlink ref="E305" r:id="rId304"/>
+    <hyperlink ref="E306" r:id="rId305"/>
+    <hyperlink ref="E307" r:id="rId306"/>
+    <hyperlink ref="E308" r:id="rId307"/>
+    <hyperlink ref="E309" r:id="rId308"/>
+    <hyperlink ref="E310" r:id="rId309"/>
+    <hyperlink ref="E311" r:id="rId310"/>
+    <hyperlink ref="E312" r:id="rId311"/>
+    <hyperlink ref="E313" r:id="rId312"/>
+    <hyperlink ref="E314" r:id="rId313"/>
+    <hyperlink ref="E315" r:id="rId314"/>
+    <hyperlink ref="E316" r:id="rId315"/>
+    <hyperlink ref="E317" r:id="rId316"/>
+    <hyperlink ref="E318" r:id="rId317"/>
+    <hyperlink ref="E319" r:id="rId318"/>
+    <hyperlink ref="E320" r:id="rId319"/>
+    <hyperlink ref="E321" r:id="rId320"/>
+    <hyperlink ref="E322" r:id="rId321"/>
+    <hyperlink ref="E323" r:id="rId322"/>
+    <hyperlink ref="E324" r:id="rId323"/>
+    <hyperlink ref="E325" r:id="rId324"/>
+    <hyperlink ref="E326" r:id="rId325"/>
+    <hyperlink ref="E327" r:id="rId326"/>
+    <hyperlink ref="E328" r:id="rId327"/>
+    <hyperlink ref="E329" r:id="rId328"/>
+    <hyperlink ref="E330" r:id="rId329"/>
+    <hyperlink ref="E331" r:id="rId330"/>
+    <hyperlink ref="E332" r:id="rId331"/>
+    <hyperlink ref="E333" r:id="rId332"/>
+    <hyperlink ref="E334" r:id="rId333"/>
+    <hyperlink ref="E335" r:id="rId334"/>
+    <hyperlink ref="E336" r:id="rId335"/>
+    <hyperlink ref="E337" r:id="rId336"/>
+    <hyperlink ref="E338" r:id="rId337"/>
+    <hyperlink ref="E339" r:id="rId338"/>
+    <hyperlink ref="E340" r:id="rId339"/>
+    <hyperlink ref="E341" r:id="rId340"/>
+    <hyperlink ref="E342" r:id="rId341"/>
+    <hyperlink ref="E343" r:id="rId342"/>
+    <hyperlink ref="E344" r:id="rId343"/>
+    <hyperlink ref="E345" r:id="rId344"/>
+    <hyperlink ref="E346" r:id="rId345"/>
+    <hyperlink ref="E347" r:id="rId346"/>
+    <hyperlink ref="E348" r:id="rId347"/>
+    <hyperlink ref="E349" r:id="rId348"/>
+    <hyperlink ref="E350" r:id="rId349"/>
+    <hyperlink ref="E351" r:id="rId350"/>
+    <hyperlink ref="E352" r:id="rId351"/>
+    <hyperlink ref="E353" r:id="rId352"/>
+    <hyperlink ref="E354" r:id="rId353"/>
+    <hyperlink ref="E355" r:id="rId354"/>
+    <hyperlink ref="E356" r:id="rId355"/>
+    <hyperlink ref="E357" r:id="rId356"/>
+    <hyperlink ref="E358" r:id="rId357"/>
+    <hyperlink ref="E359" r:id="rId358"/>
+    <hyperlink ref="E360" r:id="rId359"/>
+    <hyperlink ref="E361" r:id="rId360"/>
+    <hyperlink ref="E362" r:id="rId361"/>
+    <hyperlink ref="E363" r:id="rId362"/>
+    <hyperlink ref="E364" r:id="rId363"/>
+    <hyperlink ref="E365" r:id="rId364"/>
+    <hyperlink ref="E366" r:id="rId365"/>
+    <hyperlink ref="E367" r:id="rId366"/>
+    <hyperlink ref="E368" r:id="rId367"/>
+    <hyperlink ref="E369" r:id="rId368"/>
+    <hyperlink ref="E370" r:id="rId369"/>
+    <hyperlink ref="E371" r:id="rId370"/>
+    <hyperlink ref="E372" r:id="rId371"/>
+    <hyperlink ref="E373" r:id="rId372"/>
+    <hyperlink ref="E374" r:id="rId373"/>
+    <hyperlink ref="E375" r:id="rId374"/>
+    <hyperlink ref="E376" r:id="rId375"/>
+    <hyperlink ref="E377" r:id="rId376"/>
+    <hyperlink ref="E378" r:id="rId377"/>
+    <hyperlink ref="E379" r:id="rId378"/>
+    <hyperlink ref="E380" r:id="rId379"/>
+    <hyperlink ref="E381" r:id="rId380"/>
+    <hyperlink ref="E382" r:id="rId381"/>
+    <hyperlink ref="E383" r:id="rId382"/>
+    <hyperlink ref="E384" r:id="rId383"/>
+    <hyperlink ref="E385" r:id="rId384"/>
+    <hyperlink ref="E386" r:id="rId385"/>
+    <hyperlink ref="E387" r:id="rId386"/>
+    <hyperlink ref="E388" r:id="rId387"/>
+    <hyperlink ref="E389" r:id="rId388"/>
+    <hyperlink ref="E390" r:id="rId389"/>
+    <hyperlink ref="E391" r:id="rId390"/>
+    <hyperlink ref="E392" r:id="rId391"/>
+    <hyperlink ref="E393" r:id="rId392"/>
+    <hyperlink ref="E394" r:id="rId393"/>
+    <hyperlink ref="E395" r:id="rId394"/>
+    <hyperlink ref="E396" r:id="rId395"/>
+    <hyperlink ref="E397" r:id="rId396"/>
+    <hyperlink ref="E398" r:id="rId397"/>
+    <hyperlink ref="E399" r:id="rId398"/>
+    <hyperlink ref="E400" r:id="rId399"/>
+    <hyperlink ref="E401" r:id="rId400"/>
+    <hyperlink ref="E402" r:id="rId401"/>
+    <hyperlink ref="E403" r:id="rId402"/>
+    <hyperlink ref="E404" r:id="rId403"/>
+    <hyperlink ref="E405" r:id="rId404"/>
+    <hyperlink ref="E406" r:id="rId405"/>
+    <hyperlink ref="E407" r:id="rId406"/>
+    <hyperlink ref="E408" r:id="rId407"/>
+    <hyperlink ref="E409" r:id="rId408"/>
+    <hyperlink ref="E410" r:id="rId409"/>
+    <hyperlink ref="E411" r:id="rId410"/>
+    <hyperlink ref="E412" r:id="rId411"/>
+    <hyperlink ref="E413" r:id="rId412"/>
+    <hyperlink ref="E414" r:id="rId413"/>
+    <hyperlink ref="E415" r:id="rId414"/>
+    <hyperlink ref="E416" r:id="rId415"/>
+    <hyperlink ref="E417" r:id="rId416"/>
+    <hyperlink ref="E418" r:id="rId417"/>
+    <hyperlink ref="E419" r:id="rId418"/>
+    <hyperlink ref="E420" r:id="rId419"/>
+    <hyperlink ref="E421" r:id="rId420"/>
+    <hyperlink ref="E422" r:id="rId421"/>
+    <hyperlink ref="E423" r:id="rId422"/>
+    <hyperlink ref="E424" r:id="rId423"/>
+    <hyperlink ref="E425" r:id="rId424"/>
+    <hyperlink ref="E426" r:id="rId425"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
